--- a/storage/file_excel/Data1.xlsx
+++ b/storage/file_excel/Data1.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="84">
   <si>
     <t>นางสาว</t>
   </si>
@@ -30,12 +30,6 @@
     <t>18 ม.1</t>
   </si>
   <si>
-    <t>NU</t>
-  </si>
-  <si>
-    <t>NULL</t>
-  </si>
-  <si>
     <t>ท่าวัด</t>
   </si>
   <si>
@@ -117,21 +111,12 @@
     <t>lastname</t>
   </si>
   <si>
-    <t>birth</t>
-  </si>
-  <si>
     <t>gpa</t>
   </si>
   <si>
-    <t>swine</t>
-  </si>
-  <si>
     <t>district</t>
   </si>
   <si>
-    <t>parish</t>
-  </si>
-  <si>
     <t>phone</t>
   </si>
   <si>
@@ -159,42 +144,21 @@
     <t>salary</t>
   </si>
   <si>
-    <t>name_title</t>
-  </si>
-  <si>
-    <t>student_number</t>
-  </si>
-  <si>
-    <t>house_number</t>
-  </si>
-  <si>
     <t>year_of_graduation</t>
   </si>
   <si>
-    <t>id_card</t>
-  </si>
-  <si>
-    <t>alley</t>
-  </si>
-  <si>
     <t>road</t>
   </si>
   <si>
     <t>number_office</t>
   </si>
   <si>
-    <t>swine_office</t>
-  </si>
-  <si>
     <t>building_office</t>
   </si>
   <si>
     <t>class_office</t>
   </si>
   <si>
-    <t>alley_office</t>
-  </si>
-  <si>
     <t>road_office</t>
   </si>
   <si>
@@ -237,9 +201,6 @@
     <t>to_study_or_not</t>
   </si>
   <si>
-    <t>talent_helps_to_work_time_to_get_the_job_done</t>
-  </si>
-  <si>
     <t>time_to_get_the_job_done</t>
   </si>
   <si>
@@ -262,6 +223,51 @@
   </si>
   <si>
     <t>types_of_work</t>
+  </si>
+  <si>
+    <t>national_id</t>
+  </si>
+  <si>
+    <t>student_id</t>
+  </si>
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>birthdate</t>
+  </si>
+  <si>
+    <t>house_no</t>
+  </si>
+  <si>
+    <t>moo</t>
+  </si>
+  <si>
+    <t>soi</t>
+  </si>
+  <si>
+    <t>amphur</t>
+  </si>
+  <si>
+    <t>province</t>
+  </si>
+  <si>
+    <t>moo_office</t>
+  </si>
+  <si>
+    <t>soi_office</t>
+  </si>
+  <si>
+    <t>amphur_office</t>
+  </si>
+  <si>
+    <t>talent_helps_to_work</t>
+  </si>
+  <si>
+    <t>สุสาร</t>
+  </si>
+  <si>
+    <t>กทม</t>
   </si>
 </sst>
 </file>
@@ -288,7 +294,6 @@
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -622,180 +627,185 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AZ2"/>
+  <dimension ref="A1:BA2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AO1" workbookViewId="0">
-      <selection activeCell="AZ1" sqref="AZ1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O4" sqref="O4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="20.875" customWidth="1"/>
     <col min="2" max="2" width="21.5" customWidth="1"/>
-    <col min="42" max="42" width="20.375" customWidth="1"/>
-    <col min="43" max="43" width="20.875" customWidth="1"/>
-    <col min="44" max="44" width="34.25" customWidth="1"/>
+    <col min="24" max="24" width="13" customWidth="1"/>
+    <col min="25" max="25" width="12.25" customWidth="1"/>
+    <col min="43" max="43" width="20.375" customWidth="1"/>
+    <col min="44" max="44" width="20.875" customWidth="1"/>
+    <col min="45" max="45" width="34.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:52" ht="23.25" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:53" ht="23.25" x14ac:dyDescent="0.5">
       <c r="A1" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="U1" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="V1" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="W1" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="X1" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y1" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="Z1" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA1" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AB1" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC1" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AD1" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="AE1" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="AF1" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="AG1" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="AH1" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="K1" s="3" t="s">
+      <c r="AI1" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="AJ1" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="M1" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="R1" s="3" t="s">
+      <c r="AK1" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="S1" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="T1" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="U1" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="V1" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="W1" s="3" t="s">
+      <c r="AL1" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="X1" s="3" t="s">
+      <c r="AM1" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="Y1" s="3" t="s">
+      <c r="AN1" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="Z1" s="3" t="s">
+      <c r="AO1" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="AA1" s="3" t="s">
+      <c r="AP1" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="AB1" s="3" t="s">
+      <c r="AQ1" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="AC1" s="3" t="s">
+      <c r="AR1" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="AD1" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="AE1" s="3" t="s">
+      <c r="AS1" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="AT1" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="AF1" s="3" t="s">
+      <c r="AU1" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="AG1" s="3" t="s">
+      <c r="AV1" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="AH1" s="3" t="s">
+      <c r="AW1" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="AI1" s="3" t="s">
+      <c r="AX1" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="AJ1" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="AK1" s="3" t="s">
+      <c r="AY1" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="AL1" s="3" t="s">
+      <c r="AZ1" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="AM1" s="3" t="s">
+      <c r="BA1" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="AN1" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="AO1" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="AP1" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="AQ1" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="AR1" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="AS1" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="AT1" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="AU1" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="AV1" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="AW1" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="AX1" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="AY1" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="AZ1" s="3" t="s">
-        <v>81</v>
-      </c>
     </row>
-    <row r="2" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>2557</v>
       </c>
@@ -823,113 +833,119 @@
       <c r="I2" t="s">
         <v>3</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2">
+        <v>2</v>
+      </c>
+      <c r="L2" t="s">
+        <v>82</v>
+      </c>
+      <c r="M2" t="s">
         <v>4</v>
       </c>
-      <c r="L2" t="s">
+      <c r="N2" t="s">
         <v>5</v>
       </c>
-      <c r="M2" t="s">
+      <c r="O2" t="s">
+        <v>83</v>
+      </c>
+      <c r="P2" t="s">
         <v>6</v>
       </c>
-      <c r="N2" t="s">
+      <c r="Q2">
+        <v>40230</v>
+      </c>
+      <c r="R2" t="s">
         <v>7</v>
       </c>
-      <c r="O2" t="s">
+      <c r="S2" t="s">
         <v>8</v>
       </c>
-      <c r="P2">
-        <v>40230</v>
-      </c>
-      <c r="Q2" t="s">
+      <c r="T2" t="s">
         <v>9</v>
       </c>
-      <c r="R2" t="s">
+      <c r="U2" t="s">
         <v>10</v>
       </c>
-      <c r="S2" t="s">
+      <c r="V2" t="s">
         <v>11</v>
       </c>
-      <c r="T2" t="s">
+      <c r="W2" t="s">
         <v>12</v>
       </c>
-      <c r="U2" t="s">
+      <c r="X2">
+        <v>209</v>
+      </c>
+      <c r="Y2">
+        <v>1</v>
+      </c>
+      <c r="Z2" t="s">
         <v>13</v>
       </c>
-      <c r="V2" t="s">
+      <c r="AA2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC2" t="s">
         <v>14</v>
       </c>
-      <c r="W2">
-        <v>209</v>
-      </c>
-      <c r="X2">
-        <v>1</v>
-      </c>
-      <c r="Y2" t="s">
+      <c r="AD2" t="s">
         <v>15</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AE2" t="s">
         <v>15</v>
       </c>
-      <c r="AA2" t="s">
-        <v>15</v>
-      </c>
-      <c r="AB2" t="s">
+      <c r="AF2" t="s">
         <v>16</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AG2">
+        <v>10540</v>
+      </c>
+      <c r="AH2" t="s">
         <v>17</v>
       </c>
-      <c r="AD2" t="s">
-        <v>17</v>
-      </c>
-      <c r="AE2" t="s">
+      <c r="AI2" t="s">
         <v>18</v>
       </c>
-      <c r="AF2">
-        <v>10540</v>
-      </c>
-      <c r="AG2" t="s">
+      <c r="AJ2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AK2">
+        <v>13500</v>
+      </c>
+      <c r="AL2" t="s">
         <v>19</v>
       </c>
-      <c r="AH2" t="s">
+      <c r="AO2" t="s">
         <v>20</v>
       </c>
-      <c r="AI2" t="s">
-        <v>15</v>
-      </c>
-      <c r="AJ2">
-        <v>13500</v>
-      </c>
-      <c r="AK2" t="s">
+      <c r="AR2" t="s">
         <v>21</v>
       </c>
-      <c r="AN2" t="s">
+      <c r="AS2" t="s">
         <v>22</v>
       </c>
-      <c r="AQ2" t="s">
+      <c r="AT2" t="s">
         <v>23</v>
       </c>
-      <c r="AR2" t="s">
+      <c r="AW2" t="s">
         <v>24</v>
       </c>
-      <c r="AS2" t="s">
+      <c r="AX2" t="s">
         <v>25</v>
       </c>
-      <c r="AV2" t="s">
+      <c r="AY2" t="s">
         <v>26</v>
       </c>
-      <c r="AW2" t="s">
+      <c r="AZ2" t="s">
         <v>27</v>
       </c>
-      <c r="AX2" t="s">
+      <c r="BA2" t="s">
         <v>28</v>
-      </c>
-      <c r="AY2" t="s">
-        <v>29</v>
-      </c>
-      <c r="AZ2" t="s">
-        <v>30</v>
       </c>
     </row>
   </sheetData>
